--- a/outputs/cleaning_summary.xlsx
+++ b/outputs/cleaning_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabecollins/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabecollins/Desktop/Projects/uci-online-retail-cleaning/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18161D74-3CD9-104A-B083-8AB8E3501BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C4D401-8BF3-8041-A6CA-33B4EA4197B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="760" windowWidth="21980" windowHeight="14080" xr2:uid="{332ED0AD-2224-0A40-8AE8-1264932D8120}"/>
+    <workbookView xWindow="100" yWindow="760" windowWidth="21980" windowHeight="14080" activeTab="3" xr2:uid="{332ED0AD-2224-0A40-8AE8-1264932D8120}"/>
   </bookViews>
   <sheets>
     <sheet name="Executive Summary" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,7 @@
     <sheet name="Statistical Comparison" sheetId="3" r:id="rId3"/>
     <sheet name="Charts &amp; Visualizations" sheetId="5" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Executive Summary'!$A$9</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Executive Summary'!$B$8:$C$8</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Executive Summary'!$B$9:$C$9</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Executive Summary'!$A$9</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Executive Summary'!$B$8:$C$8</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Executive Summary'!$B$9:$C$9</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -454,13 +446,13 @@
     <t>£3,025,485 Revenue Removed</t>
   </si>
   <si>
-    <t>Missing Customer ID = 88% of Removed Records</t>
-  </si>
-  <si>
     <t>Created By: Gabe Collins</t>
   </si>
   <si>
     <t>Source: Online Retail Dataset (2010-2011)</t>
+  </si>
+  <si>
+    <t>Reasons for Record Removal - 88% Missing Customer IDs</t>
   </si>
 </sst>
 </file>
@@ -469,10 +461,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="[$£-809]#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="0.0%"/>
-    <numFmt numFmtId="174" formatCode="[$£-809]#,##0"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="[$£-809]#,##0"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -708,38 +700,28 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -747,34 +729,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -782,30 +773,6 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="29">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -947,7 +914,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="169" formatCode="[$£-809]#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -1027,7 +994,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="169" formatCode="[$£-809]#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -1102,7 +1069,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1117,6 +1084,30 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1567,10 +1558,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="103"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="3"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1598,7 +1589,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1618,7 +1609,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1638,7 +1631,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1658,7 +1653,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1678,7 +1675,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1698,7 +1697,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent1">
+                  <a:tint val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1714,6 +1715,93 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx2"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{BE7664AA-DC1B-A94C-B0B4-E4B8FE59B3BA}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" sz="2400" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr>
+                        <a:defRPr sz="2400" b="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx2"/>
+                          </a:solidFill>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[PERCENTAGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.11279136690647483"/>
+                      <c:h val="0.17395256870751483"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-377D-2444-952C-E1F09FEC64EB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:delete val="1"/>
@@ -1748,7 +1836,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx2"/>
                     </a:solidFill>
@@ -1866,6 +1954,14 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2761,42 +2857,8 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -4810,13 +4872,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
@@ -4846,13 +4908,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
@@ -4882,13 +4944,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
@@ -4920,13 +4982,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -4960,16 +5022,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C810E5E0-DEBF-1D4E-95DD-83001E73AE03}" name="Table2" displayName="Table2" ref="A8:E14" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C810E5E0-DEBF-1D4E-95DD-83001E73AE03}" name="Table2" displayName="Table2" ref="A8:E14" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A8:E14" xr:uid="{C810E5E0-DEBF-1D4E-95DD-83001E73AE03}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{3C567D9B-A762-A245-A2EF-F478C0C746E6}" name="Metric" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{786071F1-B9AE-CE4D-8AD7-395B32928FE2}" name="Raw Data" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{96D06669-19ED-024F-BAEA-B7E4538B9BC9}" name="Clean Data" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{CC8517CF-5573-E848-8B01-81C51D167A46}" name="Change" dataDxfId="25">
+    <tableColumn id="1" xr3:uid="{3C567D9B-A762-A245-A2EF-F478C0C746E6}" name="Metric" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{786071F1-B9AE-CE4D-8AD7-395B32928FE2}" name="Raw Data" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{96D06669-19ED-024F-BAEA-B7E4538B9BC9}" name="Clean Data" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{CC8517CF-5573-E848-8B01-81C51D167A46}" name="Change" dataDxfId="23">
       <calculatedColumnFormula>C9-B9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{DED9C8C6-755C-D548-9CCB-2244120371B5}" name="% Change" dataDxfId="24">
+    <tableColumn id="5" xr3:uid="{DED9C8C6-755C-D548-9CCB-2244120371B5}" name="% Change" dataDxfId="22">
       <calculatedColumnFormula>((C9-B9)/B9)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4978,45 +5040,45 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BACE6A39-3703-1747-9C42-64B090E1BE7A}" name="Table3" displayName="Table3" ref="A27:D33" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BACE6A39-3703-1747-9C42-64B090E1BE7A}" name="Table3" displayName="Table3" ref="A27:D33" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A27:D33" xr:uid="{BACE6A39-3703-1747-9C42-64B090E1BE7A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9EB91D28-46E9-F24E-9C91-E4C785B31DA1}" name="Removal Reason" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{92D06ACA-C37E-C240-A54E-84A770546A67}" name="Records" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{647B6F9F-229D-ED4B-A5A8-F19588B95A29}" name="% of Raw" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{8C42D5CB-20EF-E643-A46D-9A5DA12807F8}" name="Revenue Removed" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{9EB91D28-46E9-F24E-9C91-E4C785B31DA1}" name="Removal Reason" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{92D06ACA-C37E-C240-A54E-84A770546A67}" name="Records" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{647B6F9F-229D-ED4B-A5A8-F19588B95A29}" name="% of Raw" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{8C42D5CB-20EF-E643-A46D-9A5DA12807F8}" name="Revenue Removed" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22889321-4D84-DA47-913C-6A018415E2FB}" name="Table1" displayName="Table1" ref="A7:G13" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22889321-4D84-DA47-913C-6A018415E2FB}" name="Table1" displayName="Table1" ref="A7:G13" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A7:G13" xr:uid="{22889321-4D84-DA47-913C-6A018415E2FB}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{6A4FEE04-94DD-0149-8F74-ABB7E56E8CF5}" name="Cleaning Step" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{83E5F7BA-D7BB-164E-8C9E-312CB2838914}" name="Records Removed" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{CCD6A606-D13F-D445-8634-A23192BA23CE}" name="% of Raw Records" dataDxfId="13" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{6A4FEE04-94DD-0149-8F74-ABB7E56E8CF5}" name="Cleaning Step" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{83E5F7BA-D7BB-164E-8C9E-312CB2838914}" name="Records Removed" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{CCD6A606-D13F-D445-8634-A23192BA23CE}" name="% of Raw Records" dataDxfId="11" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1[[#This Row],[Records Removed]]/541909</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{48574193-AF5D-3647-B8E3-590BA5D50AA0}" name="Revenue Removed" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{8112CC76-5663-EA42-AE91-127D89739B92}" name="% of Raw Revenue" dataDxfId="11" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{A7410C14-0A97-254D-A80F-5B3FAE7BC610}" name="Cumulative Records" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{843A3EFE-A620-5D4D-BB73-1924C88C9C0A}" name="Cumulative Records %" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{48574193-AF5D-3647-B8E3-590BA5D50AA0}" name="Revenue Removed" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{8112CC76-5663-EA42-AE91-127D89739B92}" name="% of Raw Revenue" dataDxfId="9" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{A7410C14-0A97-254D-A80F-5B3FAE7BC610}" name="Cumulative Records" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{843A3EFE-A620-5D4D-BB73-1924C88C9C0A}" name="Cumulative Records %" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F7EA3097-347C-A340-A786-81FC414CDD5E}" name="Table4" displayName="Table4" ref="A7:E17" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F7EA3097-347C-A340-A786-81FC414CDD5E}" name="Table4" displayName="Table4" ref="A7:E17" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A7:E17" xr:uid="{F7EA3097-347C-A340-A786-81FC414CDD5E}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7B0A8F6B-9044-BF46-BBF8-0ACB28776893}" name="Statistic" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{F8AAC6DC-08A7-D641-A756-9A66E0C5C508}" name="Raw Data" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{F9F587AF-30B6-124F-AAEE-500B7FA92017}" name="Clean Data" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{4CF3CF07-2817-FF4D-A362-BDE60335BFCB}" name="Change" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{7B2FEE5F-4CD1-9A42-A99D-28BF5FB84BB9}" name="% Change" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{7B0A8F6B-9044-BF46-BBF8-0ACB28776893}" name="Statistic" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{F8AAC6DC-08A7-D641-A756-9A66E0C5C508}" name="Raw Data" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{F9F587AF-30B6-124F-AAEE-500B7FA92017}" name="Clean Data" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{4CF3CF07-2817-FF4D-A362-BDE60335BFCB}" name="Change" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{7B2FEE5F-4CD1-9A42-A99D-28BF5FB84BB9}" name="% Change" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5341,529 +5403,479 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0A3BD6-2780-E447-9010-FA5649A4F093}">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28" style="2" customWidth="1"/>
-    <col min="2" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="28" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
     </row>
     <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="31"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="2">
         <v>541909</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="2">
         <v>388765</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="2">
         <f>C9-B9</f>
         <v>-153144</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="3">
         <f t="shared" ref="E9:E11" si="0">((C9-B9)/B9)</f>
         <v>-0.28260095329658669</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="2">
         <v>4372</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="2">
         <v>4290</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="2">
         <f t="shared" ref="D10:D14" si="1">C10-B10</f>
         <v>-82</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <f t="shared" si="0"/>
         <v>-1.8755718206770355E-2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="2">
         <v>25900</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="4">
         <v>18020</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="2">
         <f t="shared" si="1"/>
         <v>-7880</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="3">
         <f t="shared" si="0"/>
         <v>-0.30424710424710427</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="5">
         <v>9747747</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="5">
         <v>6722262</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="5">
         <f t="shared" si="1"/>
         <v>-3025485</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="3">
         <f>((C13-B13)/B13)</f>
         <v>-0.3103778750105024</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="6">
         <v>17.989999999999998</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="6">
         <v>17.29</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="6">
         <f t="shared" si="1"/>
         <v>-0.69999999999999929</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="3">
         <f>((C14-B14)/B14)</f>
         <v>-3.8910505836575841E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
+      <c r="A18" s="10"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
     </row>
     <row r="25" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="38"/>
+      <c r="B25" s="31"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B28" s="16">
         <v>135080</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="17">
         <v>0.24929999999999999</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="18">
         <v>1447682.12</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="20">
+      <c r="B29" s="16">
         <v>5225</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="17">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="18">
         <v>21546.39</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="16">
         <v>8905</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="17">
         <v>1.6400000000000001E-2</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="18">
         <v>-611342.09</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="20">
+      <c r="B31" s="16">
         <v>0</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="17">
         <v>0</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="20">
+      <c r="B32" s="16">
         <v>44</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="17">
         <v>1E-4</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="16">
         <v>3890</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="17">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="18">
         <v>2167598.58</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="12"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15"/>
+      <c r="D39" s="11"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="15"/>
+      <c r="D40" s="11"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15"/>
+      <c r="D41" s="11"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="15"/>
+      <c r="D42" s="11"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="15"/>
+      <c r="D43" s="11"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="15"/>
+      <c r="D44" s="11"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="15"/>
+      <c r="D45" s="11"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="15"/>
+      <c r="D46" s="11"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="15"/>
+      <c r="D47" s="11"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="24"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="15"/>
+      <c r="A48" s="20"/>
+      <c r="D48" s="11"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="15"/>
+      <c r="D49" s="11"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="15"/>
+      <c r="D50" s="11"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="24" t="s">
+      <c r="A51" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="15"/>
+      <c r="D51" s="11"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="15"/>
+      <c r="D52" s="11"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="24" t="s">
+      <c r="A53" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="15"/>
+      <c r="D53" s="11"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="24" t="s">
+      <c r="A54" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="15"/>
+      <c r="D54" s="11"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="24" t="s">
+      <c r="A55" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="15"/>
+      <c r="D55" s="11"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="15"/>
+      <c r="D56" s="11"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="24" t="s">
+      <c r="A57" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="15"/>
+      <c r="D57" s="11"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="26" t="s">
+      <c r="A58" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C58" s="18"/>
-      <c r="D58" s="19"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5896,253 +5908,253 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="18.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="27.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="18.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="23">
         <v>135080</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="24">
         <f>Table1[[#This Row],[Records Removed]]/541909</f>
         <v>0.24926694334288599</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="18">
         <v>1447682.12</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="25">
         <f>Table1[[#This Row],[Revenue Removed]]/9747747.93</f>
         <v>0.14851452154856862</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="23">
         <f>SUM(B8:Table1[[#This Row],[Records Removed]])</f>
         <v>135080</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="17">
         <f>SUM(C8:Table1[[#This Row],[% of Raw Records]])</f>
         <v>0.24926694334288599</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="23">
         <v>5225</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="24">
         <f>Table1[[#This Row],[Records Removed]]/541909</f>
         <v>9.641840235168635E-3</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="18">
         <v>21546.39</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="25">
         <f>Table1[[#This Row],[Revenue Removed]]/9747747.93</f>
         <v>2.210396714679921E-3</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="23">
         <f>SUM(B8:Table1[[#This Row],[Records Removed]])</f>
         <v>140305</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="17">
         <f>SUM(C8:Table1[[#This Row],[% of Raw Records]])</f>
         <v>0.25890878357805464</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="23">
         <v>8905</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="24">
         <f>Table1[[#This Row],[Records Removed]]/541909</f>
         <v>1.6432648285966831E-2</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="18">
         <v>-611342.09</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="25">
         <f>Table1[[#This Row],[Revenue Removed]]/9747747.93</f>
         <v>-6.2716239113909875E-2</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="23">
         <f>SUM(B8:Table1[[#This Row],[Records Removed]])</f>
         <v>149210</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="17">
         <f>SUM(C8:Table1[[#This Row],[% of Raw Records]])</f>
         <v>0.27534143186402149</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="23">
         <v>0</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="24">
         <f>Table1[[#This Row],[Records Removed]]/541909</f>
         <v>0</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="18">
         <v>0</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="25">
         <f>Table1[[#This Row],[Revenue Removed]]/9747747.93</f>
         <v>0</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="23">
         <f>SUM(B8:Table1[[#This Row],[Records Removed]])</f>
         <v>149210</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="17">
         <f>SUM(C8:Table1[[#This Row],[% of Raw Records]])</f>
         <v>0.27534143186402149</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="23">
         <v>44</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="24">
         <f>Table1[[#This Row],[Records Removed]]/541909</f>
         <v>8.119444408563061E-5</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="18">
         <v>0</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="25">
         <f>Table1[[#This Row],[Revenue Removed]]/9747747.93</f>
         <v>0</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="23">
         <f>SUM(B8:Table1[[#This Row],[Records Removed]])</f>
         <v>149254</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="17">
         <f>SUM(C8:Table1[[#This Row],[% of Raw Records]])</f>
         <v>0.2754226263081071</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="23">
         <v>3890</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="24">
         <f>Table1[[#This Row],[Records Removed]]/541909</f>
         <v>7.1783269884796155E-3</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="6">
         <v>2167598.58</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="25">
         <f>Table1[[#This Row],[Revenue Removed]]/9747747.93</f>
         <v>0.2223691662490497</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="23">
         <f>SUM(B8:Table1[[#This Row],[Records Removed]])</f>
         <v>153144</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="17">
         <f>SUM(C8:Table1[[#This Row],[% of Raw Records]])</f>
         <v>0.28260095329658669</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C14" s="29"/>
-      <c r="E14" s="29"/>
+      <c r="C14" s="24"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C15" s="29"/>
+      <c r="C15" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6165,1121 +6177,726 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="30">
         <v>406829</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="30">
         <v>388686</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="30">
         <v>18143</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="17">
         <v>4.4600000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="27">
         <v>168469.6</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="27">
         <v>201.6</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="27">
         <v>168268</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="17">
         <v>0.99880000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="27">
         <v>20.399999999999999</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="27">
         <v>17.25</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="27">
         <v>3.15</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="17">
         <v>0.15440000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="27">
         <v>11.1</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="27">
         <v>11.85</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="27">
         <v>-0.75</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="17">
         <v>-6.7599999999999993E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="27">
         <v>-168469.6</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="27">
         <v>0.06</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="27">
         <v>-168469.66</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="27">
         <v>67.2</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="27">
         <v>59.4</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="27">
         <v>7.8</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="17">
         <v>0.11609999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="27">
         <v>199.68</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="27">
         <v>136.54</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="27">
         <v>63.14</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="17">
         <v>0.31619999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="27">
         <v>4.2</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="27">
         <v>4.95</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="27">
         <v>-0.75</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="17">
         <v>-0.17860000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="27">
         <v>19.5</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="27">
         <v>19.5</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D16" s="27">
         <v>0</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="27">
         <v>427.59</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="27">
         <v>23.19</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="27">
         <v>404.4</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="17">
         <v>0.94579999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
+      <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="15"/>
+      <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="15"/>
+      <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="15"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="15"/>
+      <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="15"/>
+      <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="15"/>
+      <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="15"/>
+      <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="15"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="15"/>
+      <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="15"/>
+      <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="15"/>
+      <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="15"/>
+      <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="15"/>
+      <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="15"/>
+      <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="15"/>
+      <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="15"/>
+      <c r="G41" s="11"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="15"/>
+      <c r="G42" s="11"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="15"/>
+      <c r="G43" s="11"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="15"/>
+      <c r="G44" s="11"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="15"/>
+      <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="15"/>
+      <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="15"/>
+      <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="15"/>
+      <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="15"/>
+      <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="15"/>
+      <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="24" t="s">
+      <c r="A51" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="15"/>
+      <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="15"/>
+      <c r="G52" s="11"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="24" t="s">
+      <c r="A53" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="15"/>
+      <c r="G53" s="11"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="24" t="s">
+      <c r="A54" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="15"/>
+      <c r="G54" s="11"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="24" t="s">
+      <c r="A55" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="15"/>
+      <c r="G55" s="11"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="15"/>
+      <c r="G56" s="11"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="24"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="15"/>
+      <c r="A57" s="20"/>
+      <c r="G57" s="11"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="15"/>
+      <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="24" t="s">
+      <c r="A59" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="15"/>
+      <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="24" t="s">
+      <c r="A60" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="15"/>
+      <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="24" t="s">
+      <c r="A61" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="15"/>
+      <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="24"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="15"/>
+      <c r="A62" s="20"/>
+      <c r="G62" s="11"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="24" t="s">
+      <c r="A63" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="15"/>
+      <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="24" t="s">
+      <c r="A64" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="15"/>
+      <c r="G64" s="11"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="24" t="s">
+      <c r="A65" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="15"/>
+      <c r="G65" s="11"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="24" t="s">
+      <c r="A66" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="15"/>
+      <c r="G66" s="11"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="24"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="15"/>
+      <c r="A67" s="20"/>
+      <c r="G67" s="11"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="24" t="s">
+      <c r="A68" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="15"/>
+      <c r="G68" s="11"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="24" t="s">
+      <c r="A69" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="15"/>
+      <c r="G69" s="11"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="24" t="s">
+      <c r="A70" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="15"/>
+      <c r="G70" s="11"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="24" t="s">
+      <c r="A71" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="15"/>
+      <c r="G71" s="11"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="24"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="15"/>
+      <c r="A72" s="20"/>
+      <c r="G72" s="11"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="24" t="s">
+      <c r="A73" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="15"/>
+      <c r="G73" s="11"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="24" t="s">
+      <c r="A74" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="15"/>
+      <c r="G74" s="11"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="24" t="s">
+      <c r="A75" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="15"/>
+      <c r="G75" s="11"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="24" t="s">
+      <c r="A76" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="15"/>
+      <c r="G76" s="11"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="24"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="15"/>
+      <c r="A77" s="20"/>
+      <c r="G77" s="11"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="24" t="s">
+      <c r="A78" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="15"/>
+      <c r="G78" s="11"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="24" t="s">
+      <c r="A79" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="15"/>
+      <c r="G79" s="11"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="24" t="s">
+      <c r="A80" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="15"/>
+      <c r="G80" s="11"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="24" t="s">
+      <c r="A81" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="15"/>
+      <c r="G81" s="11"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="24"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="15"/>
+      <c r="A82" s="20"/>
+      <c r="G82" s="11"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="24" t="s">
+      <c r="A83" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="15"/>
+      <c r="G83" s="11"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="24" t="s">
+      <c r="A84" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="15"/>
+      <c r="G84" s="11"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="24" t="s">
+      <c r="A85" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="15"/>
+      <c r="G85" s="11"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="24" t="s">
+      <c r="A86" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="15"/>
+      <c r="G86" s="11"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="24"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="15"/>
+      <c r="A87" s="20"/>
+      <c r="G87" s="11"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="24" t="s">
+      <c r="A88" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="15"/>
+      <c r="G88" s="11"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="24" t="s">
+      <c r="A89" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="15"/>
+      <c r="G89" s="11"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="24" t="s">
+      <c r="A90" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="15"/>
+      <c r="G90" s="11"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="24" t="s">
+      <c r="A91" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="15"/>
+      <c r="G91" s="11"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="24"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="15"/>
+      <c r="A92" s="20"/>
+      <c r="G92" s="11"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="24" t="s">
+      <c r="A93" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="15"/>
+      <c r="G93" s="11"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="24" t="s">
+      <c r="A94" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c r="G94" s="15"/>
+      <c r="G94" s="11"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="24" t="s">
+      <c r="A95" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="15"/>
+      <c r="G95" s="11"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="24" t="s">
+      <c r="A96" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="15"/>
+      <c r="G96" s="11"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="24"/>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="15"/>
+      <c r="A97" s="20"/>
+      <c r="G97" s="11"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="24" t="s">
+      <c r="A98" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="15"/>
+      <c r="G98" s="11"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="24" t="s">
+      <c r="A99" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c r="G99" s="15"/>
+      <c r="G99" s="11"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="24" t="s">
+      <c r="A100" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c r="G100" s="15"/>
+      <c r="G100" s="11"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="24" t="s">
+      <c r="A101" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="15"/>
+      <c r="G101" s="11"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="24" t="s">
+      <c r="A102" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c r="G102" s="15"/>
+      <c r="G102" s="11"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="26" t="s">
+      <c r="A103" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="B103" s="18"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="19"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7295,125 +6912,125 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F900D4-7EC1-B743-9968-30F1388C2757}">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="10.83203125" style="2"/>
-    <col min="6" max="6" width="7" style="2" customWidth="1"/>
-    <col min="7" max="11" width="10.83203125" style="2"/>
-    <col min="12" max="12" width="7" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="7" style="1" customWidth="1"/>
+    <col min="8" max="12" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="7" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B1" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="G1" s="36" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="H1" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="M1" s="36" t="s">
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="N1" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-    </row>
-    <row r="2" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-    </row>
-    <row r="3" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-    </row>
-    <row r="22" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-    </row>
-    <row r="23" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-    </row>
-    <row r="24" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+    </row>
+    <row r="2" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+    </row>
+    <row r="3" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+    </row>
+    <row r="22" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+    </row>
+    <row r="23" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+    </row>
+    <row r="24" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A22:K24"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="G1:K3"/>
-    <mergeCell ref="M1:Q3"/>
+    <mergeCell ref="B22:L24"/>
+    <mergeCell ref="B1:F3"/>
+    <mergeCell ref="H1:L3"/>
+    <mergeCell ref="N1:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
